--- a/doc/lut_truth_table.xlsx
+++ b/doc/lut_truth_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Downloads\FPGA\my-discrete-fpga\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C5B243-EE95-4174-B54E-07B7A43A26D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60475E20-AFD2-4F05-904C-FF0A0FFE9CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24890" windowHeight="14620" xr2:uid="{3D218147-FA5D-4FC2-864A-FAAB782F8933}"/>
+    <workbookView xWindow="6030" yWindow="2500" windowWidth="18500" windowHeight="10510" xr2:uid="{3D218147-FA5D-4FC2-864A-FAAB782F8933}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,9 +47,6 @@
     <t>s2</t>
   </si>
   <si>
-    <t>m</t>
-  </si>
-  <si>
     <t>y</t>
   </si>
   <si>
@@ -69,6 +66,9 @@
   </si>
   <si>
     <t>bitstream bit</t>
+  </si>
+  <si>
+    <t>s3</t>
   </si>
 </sst>
 </file>
@@ -218,9 +218,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -258,7 +258,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -364,7 +364,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -506,7 +506,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -516,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59186867-3327-427E-9F51-B6168417BF1A}">
   <dimension ref="A3:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -527,14 +527,14 @@
   <sheetData>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F4" s="1"/>
       <c r="G4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -542,7 +542,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>2</v>
@@ -554,20 +554,20 @@
         <v>0</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -583,7 +583,9 @@
       <c r="D6" s="6">
         <v>0</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="4">
         <v>31</v>
@@ -639,7 +641,9 @@
       <c r="D8" s="6">
         <v>0</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="4">
         <v>29</v>
@@ -725,9 +729,7 @@
       <c r="D11" s="6">
         <v>1</v>
       </c>
-      <c r="E11" s="7">
-        <v>1</v>
-      </c>
+      <c r="E11" s="7"/>
       <c r="F11" s="1"/>
       <c r="G11" s="4">
         <v>26</v>
@@ -784,9 +786,7 @@
       <c r="D13" s="6">
         <v>1</v>
       </c>
-      <c r="E13" s="7">
-        <v>1</v>
-      </c>
+      <c r="E13" s="7"/>
       <c r="G13" s="4">
         <v>24</v>
       </c>
@@ -842,9 +842,7 @@
       <c r="D15" s="6">
         <v>1</v>
       </c>
-      <c r="E15" s="7">
-        <v>1</v>
-      </c>
+      <c r="E15" s="7"/>
       <c r="G15" s="4">
         <v>22</v>
       </c>
@@ -900,9 +898,7 @@
       <c r="D17" s="6">
         <v>1</v>
       </c>
-      <c r="E17" s="7">
-        <v>1</v>
-      </c>
+      <c r="E17" s="7"/>
       <c r="G17" s="4">
         <v>20</v>
       </c>
@@ -929,7 +925,9 @@
       <c r="D18" s="6">
         <v>0</v>
       </c>
-      <c r="E18" s="7"/>
+      <c r="E18" s="7">
+        <v>1</v>
+      </c>
       <c r="G18" s="4">
         <v>19</v>
       </c>
@@ -983,7 +981,9 @@
       <c r="D20" s="6">
         <v>0</v>
       </c>
-      <c r="E20" s="7"/>
+      <c r="E20" s="7">
+        <v>1</v>
+      </c>
       <c r="G20" s="4">
         <v>17</v>
       </c>

--- a/doc/lut_truth_table.xlsx
+++ b/doc/lut_truth_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Downloads\FPGA\my-discrete-fpga\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60475E20-AFD2-4F05-904C-FF0A0FFE9CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1EBF944-3AB1-4526-9E2A-B95C18B11CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6030" yWindow="2500" windowWidth="18500" windowHeight="10510" xr2:uid="{3D218147-FA5D-4FC2-864A-FAAB782F8933}"/>
+    <workbookView xWindow="12330" yWindow="0" windowWidth="12340" windowHeight="14400" xr2:uid="{3D218147-FA5D-4FC2-864A-FAAB782F8933}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>s0</t>
   </si>
@@ -70,12 +70,15 @@
   <si>
     <t>s3</t>
   </si>
+  <si>
+    <t>0x</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,8 +103,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,8 +142,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -170,24 +192,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -198,6 +243,35 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -514,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59186867-3327-427E-9F51-B6168417BF1A}">
-  <dimension ref="A3:J21"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -525,504 +599,930 @@
     <col min="1" max="5" width="6.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F4" s="1"/>
-      <c r="G4" s="3" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="8" t="s">
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="2" t="s">
+      <c r="F5" s="8"/>
+      <c r="G5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
-        <v>0</v>
-      </c>
-      <c r="B6" s="6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="4">
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="12">
         <v>31</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="12">
         <v>47</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="12">
         <v>63</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="12">
         <v>79</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
-        <v>0</v>
-      </c>
-      <c r="B7" s="6">
-        <v>0</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="4">
+      <c r="K6" s="13">
+        <v>1</v>
+      </c>
+      <c r="L6" s="14">
+        <f t="shared" ref="L6:L18" si="0">2*L7</f>
+        <v>32768</v>
+      </c>
+      <c r="M6" s="11">
+        <f>E6*K6</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="11">
+        <f>E6*L6</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="12">
         <v>30</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="12">
         <v>46</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="12">
         <v>62</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="12">
         <v>78</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="6">
-        <v>0</v>
-      </c>
-      <c r="B8" s="6">
-        <v>0</v>
-      </c>
-      <c r="C8" s="6">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="4">
+      <c r="K7" s="13">
+        <f>2*K6</f>
+        <v>2</v>
+      </c>
+      <c r="L7" s="14">
+        <f t="shared" si="0"/>
+        <v>16384</v>
+      </c>
+      <c r="M7" s="11">
+        <f t="shared" ref="M7:M21" si="1">E7*K7</f>
+        <v>2</v>
+      </c>
+      <c r="N7" s="11">
+        <f t="shared" ref="N7:N21" si="2">E7*L7</f>
+        <v>16384</v>
+      </c>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="12">
         <v>29</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="12">
         <v>45</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="12">
         <v>61</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="12">
         <v>77</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="6">
-        <v>0</v>
-      </c>
-      <c r="B9" s="6">
-        <v>0</v>
-      </c>
-      <c r="C9" s="6">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6">
-        <v>1</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="4">
+      <c r="K8" s="13">
+        <f>2*K7</f>
+        <v>4</v>
+      </c>
+      <c r="L8" s="14">
+        <f t="shared" si="0"/>
+        <v>8192</v>
+      </c>
+      <c r="M8" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="12">
         <v>28</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="12">
         <v>44</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="12">
         <v>60</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="12">
         <v>76</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="6">
-        <v>0</v>
-      </c>
-      <c r="B10" s="6">
-        <v>1</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0</v>
-      </c>
-      <c r="E10" s="7">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="4">
+      <c r="K9" s="15">
+        <f>2*K8</f>
+        <v>8</v>
+      </c>
+      <c r="L9" s="14">
+        <f t="shared" si="0"/>
+        <v>4096</v>
+      </c>
+      <c r="M9" s="11">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="N9" s="11">
+        <f t="shared" si="2"/>
+        <v>4096</v>
+      </c>
+      <c r="O9" s="7"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="12">
         <v>27</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="12">
         <v>43</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="12">
         <v>59</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="12">
         <v>75</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="6">
-        <v>0</v>
-      </c>
-      <c r="B11" s="6">
-        <v>1</v>
-      </c>
-      <c r="C11" s="6">
-        <v>0</v>
-      </c>
-      <c r="D11" s="6">
-        <v>1</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="4">
+      <c r="K10" s="13">
+        <f t="shared" ref="K10:K21" si="3">2*K9</f>
+        <v>16</v>
+      </c>
+      <c r="L10" s="14">
+        <f t="shared" si="0"/>
+        <v>2048</v>
+      </c>
+      <c r="M10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="7"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="12">
         <v>26</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="12">
         <v>42</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="12">
         <v>58</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="12">
         <v>74</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="6">
-        <v>0</v>
-      </c>
-      <c r="B12" s="6">
-        <v>1</v>
-      </c>
-      <c r="C12" s="6">
-        <v>1</v>
-      </c>
-      <c r="D12" s="6">
-        <v>0</v>
-      </c>
-      <c r="E12" s="7">
-        <v>1</v>
-      </c>
-      <c r="G12" s="4">
+      <c r="K11" s="13">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="L11" s="14">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="M11" s="11">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="N11" s="11">
+        <f t="shared" si="2"/>
+        <v>1024</v>
+      </c>
+      <c r="O11" s="7"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="12">
         <v>25</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="12">
         <v>41</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="12">
         <v>57</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="12">
         <v>73</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="6">
-        <v>0</v>
-      </c>
-      <c r="B13" s="6">
-        <v>1</v>
-      </c>
-      <c r="C13" s="6">
-        <v>1</v>
-      </c>
-      <c r="D13" s="6">
-        <v>1</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="G13" s="4">
+      <c r="K12" s="15">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="L12" s="14">
+        <f t="shared" si="0"/>
+        <v>512</v>
+      </c>
+      <c r="M12" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="7"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="12">
         <v>24</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="12">
         <v>40</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="12">
         <v>56</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="12">
         <v>72</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="6">
-        <v>1</v>
-      </c>
-      <c r="B14" s="6">
-        <v>0</v>
-      </c>
-      <c r="C14" s="6">
-        <v>0</v>
-      </c>
-      <c r="D14" s="6">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7">
-        <v>1</v>
-      </c>
-      <c r="G14" s="4">
+      <c r="K13" s="13">
+        <f t="shared" si="3"/>
+        <v>128</v>
+      </c>
+      <c r="L13" s="14">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+      <c r="M13" s="11">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="N13" s="11">
+        <f t="shared" si="2"/>
+        <v>256</v>
+      </c>
+      <c r="O13" s="7"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="12">
         <v>23</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="12">
         <v>39</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="12">
         <v>55</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="12">
         <v>71</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="6">
-        <v>1</v>
-      </c>
-      <c r="B15" s="6">
-        <v>0</v>
-      </c>
-      <c r="C15" s="6">
-        <v>0</v>
-      </c>
-      <c r="D15" s="6">
-        <v>1</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="G15" s="4">
+      <c r="K14" s="13">
+        <f t="shared" si="3"/>
+        <v>256</v>
+      </c>
+      <c r="L14" s="14">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="M14" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="7"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="12">
         <v>22</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="12">
         <v>38</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="12">
         <v>54</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="12">
         <v>70</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="6">
-        <v>1</v>
-      </c>
-      <c r="B16" s="6">
-        <v>0</v>
-      </c>
-      <c r="C16" s="6">
-        <v>1</v>
-      </c>
-      <c r="D16" s="6">
-        <v>0</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4">
+      <c r="K15" s="15">
+        <f t="shared" si="3"/>
+        <v>512</v>
+      </c>
+      <c r="L15" s="14">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="M15" s="11">
+        <f t="shared" si="1"/>
+        <v>512</v>
+      </c>
+      <c r="N15" s="11">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="O15" s="7"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="12">
         <v>21</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="12">
         <v>37</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="12">
         <v>53</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="12">
         <v>69</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="6">
-        <v>1</v>
-      </c>
-      <c r="B17" s="6">
-        <v>0</v>
-      </c>
-      <c r="C17" s="6">
-        <v>1</v>
-      </c>
-      <c r="D17" s="6">
-        <v>1</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="G17" s="4">
+      <c r="K16" s="13">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="L16" s="14">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="M16" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="7"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="12">
         <v>20</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="12">
         <v>36</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="12">
         <v>52</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="12">
         <v>68</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="6">
-        <v>1</v>
-      </c>
-      <c r="B18" s="6">
-        <v>1</v>
-      </c>
-      <c r="C18" s="6">
-        <v>0</v>
-      </c>
-      <c r="D18" s="6">
-        <v>0</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1</v>
-      </c>
-      <c r="G18" s="4">
+      <c r="K17" s="13">
+        <f t="shared" si="3"/>
+        <v>2048</v>
+      </c>
+      <c r="L17" s="14">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="M17" s="11">
+        <f t="shared" si="1"/>
+        <v>2048</v>
+      </c>
+      <c r="N17" s="11">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="O17" s="7"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="12">
         <v>19</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="12">
         <v>35</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="12">
         <v>51</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="12">
         <v>67</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="6">
-        <v>1</v>
-      </c>
-      <c r="B19" s="6">
-        <v>1</v>
-      </c>
-      <c r="C19" s="6">
-        <v>0</v>
-      </c>
-      <c r="D19" s="6">
-        <v>1</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="G19" s="4">
+      <c r="K18" s="15">
+        <f t="shared" si="3"/>
+        <v>4096</v>
+      </c>
+      <c r="L18" s="14">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="M18" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="7"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="12">
         <v>18</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="12">
         <v>34</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="12">
         <v>50</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="12">
         <v>66</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="6">
-        <v>1</v>
-      </c>
-      <c r="B20" s="6">
-        <v>1</v>
-      </c>
-      <c r="C20" s="6">
-        <v>1</v>
-      </c>
-      <c r="D20" s="6">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1</v>
-      </c>
-      <c r="G20" s="4">
+      <c r="K19" s="13">
+        <f t="shared" si="3"/>
+        <v>8192</v>
+      </c>
+      <c r="L19" s="14">
+        <f>2*L20</f>
+        <v>4</v>
+      </c>
+      <c r="M19" s="11">
+        <f t="shared" si="1"/>
+        <v>8192</v>
+      </c>
+      <c r="N19" s="11">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="O19" s="7"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="12">
         <v>17</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="12">
         <v>33</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="12">
         <v>49</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="12">
         <v>65</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="6">
-        <v>1</v>
-      </c>
-      <c r="B21" s="6">
-        <v>1</v>
-      </c>
-      <c r="C21" s="6">
-        <v>1</v>
-      </c>
-      <c r="D21" s="6">
-        <v>1</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="G21" s="4">
+      <c r="K20" s="13">
+        <f t="shared" si="3"/>
+        <v>16384</v>
+      </c>
+      <c r="L20" s="14">
+        <f>2*L21</f>
+        <v>2</v>
+      </c>
+      <c r="M20" s="11">
+        <f t="shared" si="1"/>
+        <v>16384</v>
+      </c>
+      <c r="N20" s="11">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O20" s="7"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="12">
         <v>16</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="12">
         <v>32</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="12">
         <v>48</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="12">
         <v>64</v>
       </c>
+      <c r="K21" s="15">
+        <f t="shared" si="3"/>
+        <v>32768</v>
+      </c>
+      <c r="L21" s="15">
+        <v>1</v>
+      </c>
+      <c r="M21" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="7"/>
+    </row>
+    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="11">
+        <f>SUM(M6:M21)</f>
+        <v>27306</v>
+      </c>
+      <c r="N22" s="11">
+        <f>SUM(N6:N21)</f>
+        <v>21846</v>
+      </c>
+      <c r="O22" s="7"/>
+    </row>
+    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="6" t="str">
+        <f>DEC2HEX(M22)</f>
+        <v>6AAA</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+    </row>
+    <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="6" t="str">
+        <f>DEC2HEX(N22)</f>
+        <v>5556</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/lut_truth_table.xlsx
+++ b/doc/lut_truth_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Downloads\FPGA\my-discrete-fpga\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1EBF944-3AB1-4526-9E2A-B95C18B11CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF23DF0-3BA2-49D3-AA60-C87E72BAFE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12330" yWindow="0" windowWidth="12340" windowHeight="14400" xr2:uid="{3D218147-FA5D-4FC2-864A-FAAB782F8933}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{3D218147-FA5D-4FC2-864A-FAAB782F8933}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>s0</t>
   </si>
@@ -73,12 +73,21 @@
   <si>
     <t>0x</t>
   </si>
+  <si>
+    <t>fizz</t>
+  </si>
+  <si>
+    <t>buzz</t>
+  </si>
+  <si>
+    <t>fizz-buzz</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +122,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF7030A0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -231,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -268,11 +283,17 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -591,15 +612,15 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="6.1796875" customWidth="1"/>
+    <col min="1" max="5" width="6.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -616,7 +637,7 @@
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -633,7 +654,7 @@
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
@@ -652,7 +673,7 @@
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -671,7 +692,7 @@
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -706,7 +727,7 @@
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -750,7 +771,7 @@
       </c>
       <c r="O6" s="7"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -763,9 +784,7 @@
       <c r="D7" s="2">
         <v>1</v>
       </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
+      <c r="E7" s="3"/>
       <c r="F7" s="8"/>
       <c r="G7" s="12">
         <v>30</v>
@@ -789,15 +808,15 @@
       </c>
       <c r="M7" s="11">
         <f t="shared" ref="M7:M21" si="1">E7*K7</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N7" s="11">
         <f t="shared" ref="N7:N21" si="2">E7*L7</f>
-        <v>16384</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>0</v>
       </c>
@@ -842,7 +861,7 @@
       </c>
       <c r="O8" s="7"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>0</v>
       </c>
@@ -855,10 +874,10 @@
       <c r="D9" s="2">
         <v>1</v>
       </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="8"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="G9" s="12">
         <v>28</v>
       </c>
@@ -881,15 +900,15 @@
       </c>
       <c r="M9" s="11">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N9" s="11">
         <f t="shared" si="2"/>
-        <v>4096</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>0</v>
       </c>
@@ -934,7 +953,7 @@
       </c>
       <c r="O10" s="7"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>0</v>
       </c>
@@ -950,7 +969,9 @@
       <c r="E11" s="3">
         <v>1</v>
       </c>
-      <c r="F11" s="8"/>
+      <c r="F11" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="G11" s="12">
         <v>26</v>
       </c>
@@ -981,7 +1002,7 @@
       </c>
       <c r="O11" s="7"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>0</v>
       </c>
@@ -1026,7 +1047,7 @@
       </c>
       <c r="O12" s="7"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>0</v>
       </c>
@@ -1039,9 +1060,7 @@
       <c r="D13" s="2">
         <v>1</v>
       </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
+      <c r="E13" s="3"/>
       <c r="F13" s="8"/>
       <c r="G13" s="12">
         <v>24</v>
@@ -1065,15 +1084,15 @@
       </c>
       <c r="M13" s="11">
         <f t="shared" si="1"/>
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="N13" s="11">
         <f t="shared" si="2"/>
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -1118,7 +1137,7 @@
       </c>
       <c r="O14" s="7"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1</v>
       </c>
@@ -1131,10 +1150,10 @@
       <c r="D15" s="2">
         <v>1</v>
       </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="8"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="G15" s="12">
         <v>22</v>
       </c>
@@ -1157,15 +1176,15 @@
       </c>
       <c r="M15" s="11">
         <f t="shared" si="1"/>
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="N15" s="11">
         <f t="shared" si="2"/>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="O15" s="7"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1</v>
       </c>
@@ -1178,8 +1197,12 @@
       <c r="D16" s="2">
         <v>0</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="8"/>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="G16" s="12">
         <v>21</v>
       </c>
@@ -1202,15 +1225,15 @@
       </c>
       <c r="M16" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="N16" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="O16" s="7"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>1</v>
       </c>
@@ -1223,9 +1246,7 @@
       <c r="D17" s="2">
         <v>1</v>
       </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
+      <c r="E17" s="3"/>
       <c r="F17" s="8"/>
       <c r="G17" s="12">
         <v>20</v>
@@ -1249,15 +1270,15 @@
       </c>
       <c r="M17" s="11">
         <f t="shared" si="1"/>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="N17" s="11">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>1</v>
       </c>
@@ -1271,7 +1292,9 @@
         <v>0</v>
       </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="8"/>
+      <c r="F18" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="G18" s="12">
         <v>19</v>
       </c>
@@ -1302,7 +1325,7 @@
       </c>
       <c r="O18" s="7"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>1</v>
       </c>
@@ -1315,9 +1338,7 @@
       <c r="D19" s="2">
         <v>1</v>
       </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
+      <c r="E19" s="3"/>
       <c r="F19" s="8"/>
       <c r="G19" s="12">
         <v>18</v>
@@ -1341,15 +1362,15 @@
       </c>
       <c r="M19" s="11">
         <f t="shared" si="1"/>
-        <v>8192</v>
+        <v>0</v>
       </c>
       <c r="N19" s="11">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>1</v>
       </c>
@@ -1362,9 +1383,7 @@
       <c r="D20" s="2">
         <v>0</v>
       </c>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
+      <c r="E20" s="3"/>
       <c r="F20" s="8"/>
       <c r="G20" s="12">
         <v>17</v>
@@ -1388,15 +1407,15 @@
       </c>
       <c r="M20" s="11">
         <f t="shared" si="1"/>
-        <v>16384</v>
+        <v>0</v>
       </c>
       <c r="N20" s="11">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>1</v>
       </c>
@@ -1409,8 +1428,12 @@
       <c r="D21" s="2">
         <v>1</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="8"/>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="G21" s="12">
         <v>16</v>
       </c>
@@ -1432,15 +1455,15 @@
       </c>
       <c r="M21" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>32768</v>
       </c>
       <c r="N21" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" s="7"/>
     </row>
-    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1455,15 +1478,15 @@
       <c r="L22" s="7"/>
       <c r="M22" s="11">
         <f>SUM(M6:M21)</f>
-        <v>27306</v>
+        <v>33824</v>
       </c>
       <c r="N22" s="11">
         <f>SUM(N6:N21)</f>
-        <v>21846</v>
+        <v>1057</v>
       </c>
       <c r="O22" s="7"/>
     </row>
-    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1472,7 +1495,7 @@
       </c>
       <c r="E23" s="6" t="str">
         <f>DEC2HEX(M22)</f>
-        <v>6AAA</v>
+        <v>8420</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -1485,16 +1508,16 @@
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
     </row>
-    <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="6" t="str">
+      <c r="E24" s="17" t="str">
         <f>DEC2HEX(N22)</f>
-        <v>5556</v>
+        <v>421</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
@@ -1507,7 +1530,7 @@
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>

--- a/doc/lut_truth_table.xlsx
+++ b/doc/lut_truth_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Downloads\FPGA\my-discrete-fpga\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF23DF0-3BA2-49D3-AA60-C87E72BAFE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1130E7-C2D8-49DD-BA98-99419A2094C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{3D218147-FA5D-4FC2-864A-FAAB782F8933}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3D218147-FA5D-4FC2-864A-FAAB782F8933}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>s0</t>
   </si>
@@ -72,15 +72,6 @@
   </si>
   <si>
     <t>0x</t>
-  </si>
-  <si>
-    <t>fizz</t>
-  </si>
-  <si>
-    <t>buzz</t>
-  </si>
-  <si>
-    <t>fizz-buzz</t>
   </si>
 </sst>
 </file>
@@ -612,7 +603,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,7 +731,9 @@
       <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
       <c r="F6" s="8"/>
       <c r="G6" s="12">
         <v>31</v>
@@ -763,11 +756,11 @@
       </c>
       <c r="M6" s="11">
         <f>E6*K6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="11">
         <f>E6*L6</f>
-        <v>0</v>
+        <v>32768</v>
       </c>
       <c r="O6" s="7"/>
     </row>
@@ -784,7 +777,9 @@
       <c r="D7" s="2">
         <v>1</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
       <c r="F7" s="8"/>
       <c r="G7" s="12">
         <v>30</v>
@@ -808,11 +803,11 @@
       </c>
       <c r="M7" s="11">
         <f t="shared" ref="M7:M21" si="1">E7*K7</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N7" s="11">
         <f t="shared" ref="N7:N21" si="2">E7*L7</f>
-        <v>0</v>
+        <v>16384</v>
       </c>
       <c r="O7" s="7"/>
     </row>
@@ -829,7 +824,9 @@
       <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
       <c r="F8" s="8"/>
       <c r="G8" s="12">
         <v>29</v>
@@ -853,11 +850,11 @@
       </c>
       <c r="M8" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N8" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8192</v>
       </c>
       <c r="O8" s="7"/>
     </row>
@@ -874,10 +871,10 @@
       <c r="D9" s="2">
         <v>1</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8"/>
       <c r="G9" s="12">
         <v>28</v>
       </c>
@@ -900,11 +897,11 @@
       </c>
       <c r="M9" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N9" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4096</v>
       </c>
       <c r="O9" s="7"/>
     </row>
@@ -921,7 +918,9 @@
       <c r="D10" s="2">
         <v>0</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
       <c r="F10" s="8"/>
       <c r="G10" s="12">
         <v>27</v>
@@ -945,11 +944,11 @@
       </c>
       <c r="M10" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N10" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2048</v>
       </c>
       <c r="O10" s="7"/>
     </row>
@@ -969,9 +968,7 @@
       <c r="E11" s="3">
         <v>1</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="F11" s="8"/>
       <c r="G11" s="12">
         <v>26</v>
       </c>
@@ -1015,7 +1012,9 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
       <c r="F12" s="8"/>
       <c r="G12" s="12">
         <v>25</v>
@@ -1039,11 +1038,11 @@
       </c>
       <c r="M12" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="N12" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>512</v>
       </c>
       <c r="O12" s="7"/>
     </row>
@@ -1060,7 +1059,9 @@
       <c r="D13" s="2">
         <v>1</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
       <c r="F13" s="8"/>
       <c r="G13" s="12">
         <v>24</v>
@@ -1084,11 +1085,11 @@
       </c>
       <c r="M13" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="N13" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="O13" s="7"/>
     </row>
@@ -1151,9 +1152,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="3"/>
-      <c r="F15" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="F15" s="8"/>
       <c r="G15" s="12">
         <v>22</v>
       </c>
@@ -1197,12 +1196,8 @@
       <c r="D16" s="2">
         <v>0</v>
       </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="8"/>
       <c r="G16" s="12">
         <v>21</v>
       </c>
@@ -1225,11 +1220,11 @@
       </c>
       <c r="M16" s="11">
         <f t="shared" si="1"/>
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="N16" s="11">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7"/>
     </row>
@@ -1292,9 +1287,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="F18" s="8"/>
       <c r="G18" s="12">
         <v>19</v>
       </c>
@@ -1428,12 +1421,8 @@
       <c r="D21" s="2">
         <v>1</v>
       </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="8"/>
       <c r="G21" s="12">
         <v>16</v>
       </c>
@@ -1455,11 +1444,11 @@
       </c>
       <c r="M21" s="11">
         <f t="shared" si="1"/>
-        <v>32768</v>
+        <v>0</v>
       </c>
       <c r="N21" s="11">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" s="7"/>
     </row>
@@ -1478,11 +1467,11 @@
       <c r="L22" s="7"/>
       <c r="M22" s="11">
         <f>SUM(M6:M21)</f>
-        <v>33824</v>
+        <v>255</v>
       </c>
       <c r="N22" s="11">
         <f>SUM(N6:N21)</f>
-        <v>1057</v>
+        <v>65280</v>
       </c>
       <c r="O22" s="7"/>
     </row>
@@ -1495,7 +1484,7 @@
       </c>
       <c r="E23" s="6" t="str">
         <f>DEC2HEX(M22)</f>
-        <v>8420</v>
+        <v>FF</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -1517,7 +1506,7 @@
       </c>
       <c r="E24" s="17" t="str">
         <f>DEC2HEX(N22)</f>
-        <v>421</v>
+        <v>FF00</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
